--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100BDDE-E1ED-4DA1-9D8F-BC204CE7947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="9300" yWindow="3045" windowWidth="17460" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get started with Azure accounts" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>To create and use Azure services, you need an Azure subscription</t>
     <phoneticPr fontId="1"/>
@@ -159,23 +160,29 @@
   </si>
   <si>
     <t>Some resources may be moved between resource groups, but when you move a resource to a new group, it will no longer be associated with the former group. </t>
+  </si>
+  <si>
+    <t>Subscriptions may be grouped into management groups</t>
+  </si>
+  <si>
+    <t>use to manage access, policies, and compliance across multiple subscriptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -244,7 +251,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Diagram showing the different levels of account scope."/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Diagram showing the different levels of account scope.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +312,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -337,7 +356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -375,7 +400,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -413,7 +444,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -451,7 +488,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Diagram showing Azure subscriptions using authentication and authorization to access Azure accounts."/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Diagram showing Azure subscriptions using authentication and authorization to access Azure accounts.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -511,7 +554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -549,7 +598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -591,7 +646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3073" name="AutoShape 1" descr="Diagram showing Azure subscriptions using authentication and authorization to access Azure accounts."/>
+        <xdr:cNvPr id="3073" name="AutoShape 1" descr="Diagram showing Azure subscriptions using authentication and authorization to access Azure accounts.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000010C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -633,7 +694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="AutoShape 2" descr="https://learn.microsoft.com/en-us/training/wwl-azure/describe-core-architectural-components-of-azure/media/subscriptions-d415577b.png"/>
+        <xdr:cNvPr id="3074" name="AutoShape 2" descr="https://learn.microsoft.com/en-us/training/wwl-azure/describe-core-architectural-components-of-azure/media/subscriptions-d415577b.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -675,7 +742,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -719,7 +792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Diagram showing an example of a management group hierarchy tree."/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Diagram showing an example of a management group hierarchy tree.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -774,7 +853,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -812,7 +897,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -855,7 +946,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1143,16 +1240,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,24 +1257,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1189,56 +1291,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1252,136 +1354,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="17.25">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4">
       <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4">
       <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4">
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4">
       <c r="D39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4">
       <c r="D40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4">
       <c r="C43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4">
       <c r="D44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4">
       <c r="C46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4">
       <c r="D47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="C49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="D50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3">
       <c r="B78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -1395,31 +1502,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B43:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>38</v>
       </c>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9100BDDE-E1ED-4DA1-9D8F-BC204CE7947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="3045" windowWidth="17460" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="3045" windowWidth="17460" windowHeight="11295" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Get started with Azure accounts" sheetId="1" r:id="rId1"/>
@@ -171,18 +170,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -534,6 +533,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503133</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>237768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26670000"/>
+          <a:ext cx="13533333" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503133</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>237768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29765625"/>
+          <a:ext cx="13533333" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503133</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>237768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32861250"/>
+          <a:ext cx="13533333" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -967,6 +1080,44 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="18266666" cy="9895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503133</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>237768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11430000"/>
+          <a:ext cx="13533333" cy="2857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1240,16 +1391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,27 +1408,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -1291,56 +1442,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1354,141 +1505,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -1502,31 +1653,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B43:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>38</v>
       </c>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B021A-6722-473D-BC8A-EBDC03B38B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="3045" windowWidth="17460" windowHeight="11295" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get started with Azure accounts" sheetId="1" r:id="rId1"/>
@@ -170,18 +171,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -548,7 +549,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -586,7 +593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -624,7 +637,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -639,6 +658,138 @@
         <a:xfrm>
           <a:off x="0" y="32861250"/>
           <a:ext cx="13533333" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>141181</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>66167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D19AD04-CF2A-48CF-BFB7-4509BF99D520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28765500"/>
+          <a:ext cx="13552381" cy="4066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>103009</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>37833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DAC844-85D1-FBE9-3E2A-24A146BD2EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33147000"/>
+          <a:ext cx="14123809" cy="2133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>303771</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>66452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEDB755-D0EF-962D-7A35-BBC53E6A547C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35623500"/>
+          <a:ext cx="8228571" cy="1780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1103,7 +1254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1391,16 +1548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1408,27 +1565,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11">
       <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -1442,56 +1599,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1505,141 +1662,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="17.25">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:4">
       <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:4">
       <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:4">
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:4">
       <c r="D39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:4">
       <c r="D40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:4">
       <c r="C43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:4">
       <c r="D44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:4">
       <c r="C46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:4">
       <c r="D47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="C49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="D50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="B56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3">
       <c r="B78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -1653,31 +1810,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B43:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>38</v>
       </c>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure architecture and services/Describe the core architectural components of Azure.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B021A-6722-473D-BC8A-EBDC03B38B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Get started with Azure accounts" sheetId="1" r:id="rId1"/>
@@ -171,18 +170,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -762,20 +761,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>303771</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>66452</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEDB755-D0EF-962D-7A35-BBC53E6A547C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74476</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -788,8 +781,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35623500"/>
-          <a:ext cx="8228571" cy="1780952"/>
+          <a:off x="0" y="44529375"/>
+          <a:ext cx="13790476" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74476</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47863125"/>
+          <a:ext cx="13790476" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74476</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51196875"/>
+          <a:ext cx="13790476" cy="2990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,16 +1617,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="X196" sqref="X196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,27 +1634,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -1599,56 +1668,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -1662,141 +1731,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C79" t="s">
         <v>32</v>
       </c>
@@ -1810,31 +1879,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B43:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>38</v>
       </c>
